--- a/medicine/Mort/Cimetière_du_Sud_(Lille)/Cimetière_du_Sud_(Lille).xlsx
+++ b/medicine/Mort/Cimetière_du_Sud_(Lille)/Cimetière_du_Sud_(Lille).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Sud_(Lille)</t>
+          <t>Cimetière_du_Sud_(Lille)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière du Sud est un cimetière situé au sud du boulevard périphérique sud de Lille. Ce cimetière fait partie des 73 000 cimetières répertoriés dans lesquels reposent des soldats du Commonwealth.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Sud_(Lille)</t>
+          <t>Cimetière_du_Sud_(Lille)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière du Cimetière du Sud  est situé rue du Faubourg des Postes à Lille.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Sud_(Lille)</t>
+          <t>Cimetière_du_Sud_(Lille)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,11 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cimetière du Sud
-Le cimetière se situé dans un quartier populaire à la forte concentration de personnes d'origine immigrée[1].
-Construction et agrandissements
-Le cimetière du Sud est conçu en 1864 par l'architecte Henri Contamine, il regroupe 47 000 concessions[2] sur 33 hectares[3], ce qui en fait un des plus grands cimetières de France.
-Le père d'Alfred Mongy est le directeur du cimetière[4].
+          <t>Cimetière du Sud</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière se situé dans un quartier populaire à la forte concentration de personnes d'origine immigrée.
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Sud_(Lille)</t>
+          <t>Cimetière_du_Sud_(Lille)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,12 +590,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Monuments aux morts et mémoriaux</t>
+          <t>Historique</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">On y trouve un monument du souvenir français dû à Carlos Batteur. Le carré des dix-huit ponts regroupe, sous des croix simples, les corps des victimes de l'explosion de la poudrière que les Allemands avaient installée dans le quartier des Moulins, un peu excentré de Lille. Le dépôt de munitions a explosé accidentellement dans la nuit du 11 janvier 1916 créant un cratère de 150 m de diamètre. L'explosion fut entendue jusqu'à 100 km de distance et détruisit 21 usines et 738 maisons. Elle fit 134 morts et près de 400 blessés parmi la population civile[1].
+          <t>Construction et agrandissements</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière du Sud est conçu en 1864 par l'architecte Henri Contamine, il regroupe 47 000 concessions sur 33 hectares, ce qui en fait un des plus grands cimetières de France.
+Le père d'Alfred Mongy est le directeur du cimetière.
 </t>
         </is>
       </c>
@@ -590,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Sud_(Lille)</t>
+          <t>Cimetière_du_Sud_(Lille)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,12 +628,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Cimetières militaires</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière comporte deux cimetières militaires, l'un allemand, le Deutscher Soldatenfriedhof Lille-Süd, l'autre  britannique le Lille Southern Cemetery.
+          <t>Monuments aux morts et mémoriaux</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On y trouve un monument du souvenir français dû à Carlos Batteur. Le carré des dix-huit ponts regroupe, sous des croix simples, les corps des victimes de l'explosion de la poudrière que les Allemands avaient installée dans le quartier des Moulins, un peu excentré de Lille. Le dépôt de munitions a explosé accidentellement dans la nuit du 11 janvier 1916 créant un cratère de 150 m de diamètre. L'explosion fut entendue jusqu'à 100 km de distance et détruisit 21 usines et 738 maisons. Elle fit 134 morts et près de 400 blessés parmi la population civile.
 </t>
         </is>
       </c>
@@ -621,7 +646,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_du_Sud_(Lille)</t>
+          <t>Cimetière_du_Sud_(Lille)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,10 +661,45 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Cimetières militaires</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière comporte deux cimetières militaires, l'un allemand, le Deutscher Soldatenfriedhof Lille-Süd, l'autre  britannique le Lille Southern Cemetery.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cimetière_du_Sud_(Lille)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_du_Sud_(Lille)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Personnalités inhumées au cimetière du Sud</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Marcel Bouderiez  (1899-1943) Commandant FFI Nord
 Charles Bacqueville (1865-1926), musicien
@@ -659,7 +719,7 @@
 Famille Scrive-Wallaert-Boselli
 Norbert Ségard (1922-1981), homme politique français
 Léopold Simons (1901-1979), chansonnier
-Julien Thiriez († 1913) [1], filateur
+Julien Thiriez († 1913) , filateur
 Désiré Verhaeghe (1874-1927), médecin et homme politique local - haut-relief dû à Aimé Blaise</t>
         </is>
       </c>
